--- a/RAnalysis/Metadata/Oct_2020_pulchra_cyatherea_metadata.xlsx
+++ b/RAnalysis/Metadata/Oct_2020_pulchra_cyatherea_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcone\Documents\URI\Lab-Notebook\Apul_Spawning_Nurs.vs.Wild\RAnalysis\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B6AD1C-3F53-4CDA-9FC1-09E25C9C66B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B612C53-7DB3-45F3-A938-EA16F0D338D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5145E50B-C164-4F0B-AAA6-AD1290278528}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="63">
   <si>
     <t>Species</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Date.Spawned_1</t>
   </si>
   <si>
-    <t>Date.Spawned_2</t>
-  </si>
-  <si>
     <t>Who Took Molecular</t>
   </si>
   <si>
@@ -165,6 +162,66 @@
   </si>
   <si>
     <t>Larval Size</t>
+  </si>
+  <si>
+    <t>Linareva</t>
+  </si>
+  <si>
+    <t>Apul_66</t>
+  </si>
+  <si>
+    <t>Apul_73</t>
+  </si>
+  <si>
+    <t>Apul_76</t>
+  </si>
+  <si>
+    <t>Apul_173</t>
+  </si>
+  <si>
+    <t>Apul_178</t>
+  </si>
+  <si>
+    <t>Apul_204</t>
+  </si>
+  <si>
+    <t>Apul_208</t>
+  </si>
+  <si>
+    <t>Apul_234</t>
+  </si>
+  <si>
+    <t>Apul_241</t>
+  </si>
+  <si>
+    <t>Acya_20</t>
+  </si>
+  <si>
+    <t>Manava</t>
+  </si>
+  <si>
+    <t>Did not cross outplanted colonies from Manava or Mahana because one colony from there did not produce enough to cross - excluded mahana outplants from wild pool to keep treatment and site separate</t>
+  </si>
+  <si>
+    <t>No samples taken because this colony had been characterized  before and didn't do crosses</t>
+  </si>
+  <si>
+    <t>Acya_N7</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>Nursery</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Only took fecundity because these colonies went the day before and got the fecundity fragments a little late.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9C2BEE-5F9A-4AF8-8D99-CAB245FE835C}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,16 +597,16 @@
     <col min="1" max="1" width="9.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.88671875" style="2"/>
-    <col min="11" max="11" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,402 +623,399 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <v>20201007</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>20201007</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>20201007</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>20201007</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>20201007</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>20201007</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>20201007</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>20201007</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2">
         <v>20201007</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -968,37 +1023,37 @@
       <c r="E11" s="2">
         <v>20201007</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -1006,37 +1061,37 @@
       <c r="E12" s="2">
         <v>20201007</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -1044,37 +1099,37 @@
       <c r="E13" s="2">
         <v>20201007</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
@@ -1082,37 +1137,37 @@
       <c r="E14" s="2">
         <v>20201007</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>37</v>
@@ -1120,75 +1175,75 @@
       <c r="E15" s="2">
         <v>20201007</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2">
         <v>20201007</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1196,37 +1251,37 @@
       <c r="E17" s="2">
         <v>20201007</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -1234,26 +1289,637 @@
       <c r="E18" s="2">
         <v>20201007</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>201</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20201008</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>202</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20201008</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>173</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>178</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>204</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>208</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>234</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>241</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20201009</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20201010</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20201010</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20201010</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2">
+        <v>234</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20201010</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/RAnalysis/Metadata/Oct_2020_pulchra_cyatherea_metadata.xlsx
+++ b/RAnalysis/Metadata/Oct_2020_pulchra_cyatherea_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcone\Documents\URI\Lab-Notebook\Apul_Spawning_Nurs.vs.Wild\RAnalysis\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B612C53-7DB3-45F3-A938-EA16F0D338D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559A97C-A6C4-4222-91C1-0AA4DE6CEF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5145E50B-C164-4F0B-AAA6-AD1290278528}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="64">
   <si>
     <t>Species</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Manava</t>
   </si>
   <si>
-    <t>Did not cross outplanted colonies from Manava or Mahana because one colony from there did not produce enough to cross - excluded mahana outplants from wild pool to keep treatment and site separate</t>
-  </si>
-  <si>
     <t>No samples taken because this colony had been characterized  before and didn't do crosses</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>Only took fecundity because these colonies went the day before and got the fecundity fragments a little late.</t>
+  </si>
+  <si>
+    <t>Did not cross outplanted colonies from Manava or Mahana because one colony from there did not produce enough to cross - excluded mahana outplants from wild pool to keep treatment and site separate ; not bundles in fecundity</t>
+  </si>
+  <si>
+    <t>No bundles in fecundity branch</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,8 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31:E34"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,7 +1349,7 @@
         <v>38</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -1384,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -1425,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1503,6 +1506,9 @@
       <c r="N23" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1540,6 +1546,9 @@
       </c>
       <c r="N24" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1769,31 +1778,34 @@
       <c r="N30" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E31" s="2">
         <v>20201010</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>38</v>
@@ -1840,10 +1852,10 @@
         <v>38</v>
       </c>
       <c r="N32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -1878,10 +1890,10 @@
         <v>38</v>
       </c>
       <c r="N33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -1916,10 +1928,10 @@
         <v>38</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
